--- a/paintshop_november_2024.xlsx
+++ b/paintshop_november_2024.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\884570\Documents\OR5\New assignment\Python scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ellem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2360CB15-5A98-4FD2-B479-A95CCC89C1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7060"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -28,9 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="65">
   <si>
-    <t>Machine</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
@@ -40,12 +38,6 @@
     <t>M3</t>
   </si>
   <si>
-    <t>Deadline</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
     <t>O1</t>
   </si>
   <si>
@@ -145,30 +137,9 @@
     <t>O30</t>
   </si>
   <si>
-    <t>Setup time</t>
-  </si>
-  <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>Penalty</t>
-  </si>
-  <si>
     <t>Blue</t>
   </si>
   <si>
-    <t>Surface</t>
-  </si>
-  <si>
-    <t>Colour</t>
-  </si>
-  <si>
-    <t>From colour</t>
-  </si>
-  <si>
-    <t>To colour</t>
-  </si>
-  <si>
     <t>O31</t>
   </si>
   <si>
@@ -221,12 +192,42 @@
   </si>
   <si>
     <t>Purple</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>setup_time</t>
+  </si>
+  <si>
+    <t>to_colour</t>
+  </si>
+  <si>
+    <t>from_colour</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>surface</t>
+  </si>
+  <si>
+    <t>colour</t>
+  </si>
+  <si>
+    <t>deadline</t>
+  </si>
+  <si>
+    <t>penalty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -355,7 +356,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -632,45 +633,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.26953125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="5">
         <v>150</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5">
         <v>18</v>
@@ -679,15 +680,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" s="5">
         <v>200</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5">
         <v>22</v>
@@ -696,15 +697,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="5">
         <v>180</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D4" s="5">
         <v>12</v>
@@ -713,15 +714,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="5">
         <v>170</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D5" s="5">
         <v>15</v>
@@ -730,15 +731,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="5">
         <v>130</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5">
         <v>28</v>
@@ -747,15 +748,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" s="5">
         <v>160</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D7" s="5">
         <v>33</v>
@@ -764,15 +765,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5">
         <v>140</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8" s="5">
         <v>35</v>
@@ -781,15 +782,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" s="5">
         <v>210</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5">
         <v>38</v>
@@ -798,15 +799,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B10" s="5">
         <v>190</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D10" s="5">
         <v>32</v>
@@ -815,15 +816,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" s="5">
         <v>120</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D11" s="5">
         <v>41</v>
@@ -832,15 +833,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12" s="5">
         <v>230</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12" s="5">
         <v>20</v>
@@ -849,15 +850,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B13" s="5">
         <v>220</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D13" s="5">
         <v>18</v>
@@ -866,15 +867,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="5">
         <v>110</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D14" s="5">
         <v>49</v>
@@ -883,15 +884,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B15" s="5">
         <v>250</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D15" s="5">
         <v>49</v>
@@ -900,15 +901,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5">
         <v>240</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D16" s="5">
         <v>66</v>
@@ -917,15 +918,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B17" s="5">
         <v>160</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D17" s="5">
         <v>63</v>
@@ -934,15 +935,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B18" s="5">
         <v>140</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D18" s="5">
         <v>85</v>
@@ -951,15 +952,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B19" s="5">
         <v>210</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D19" s="5">
         <v>78</v>
@@ -968,15 +969,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B20" s="5">
         <v>200</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D20" s="5">
         <v>76</v>
@@ -985,15 +986,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B21" s="5">
         <v>150</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D21" s="5">
         <v>61</v>
@@ -1002,15 +1003,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B22" s="5">
         <v>170</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D22" s="5">
         <v>69</v>
@@ -1019,15 +1020,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B23" s="5">
         <v>130</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D23" s="5">
         <v>86</v>
@@ -1036,15 +1037,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B24" s="5">
         <v>180</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D24" s="5">
         <v>100</v>
@@ -1053,15 +1054,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B25" s="5">
         <v>190</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D25" s="5">
         <v>106</v>
@@ -1070,15 +1071,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B26" s="5">
         <v>210</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D26" s="5">
         <v>53</v>
@@ -1087,15 +1088,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B27" s="5">
         <v>220</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D27" s="5">
         <v>81</v>
@@ -1104,15 +1105,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B28" s="5">
         <v>120</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D28" s="5">
         <v>78</v>
@@ -1121,15 +1122,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B29" s="5">
         <v>230</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D29" s="5">
         <v>82</v>
@@ -1138,15 +1139,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B30" s="5">
         <v>110</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D30" s="5">
         <v>110</v>
@@ -1155,15 +1156,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B31" s="5">
         <v>240</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D31" s="5">
         <v>115</v>
@@ -1172,15 +1173,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B32" s="5">
         <v>180</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D32" s="5">
         <v>100</v>
@@ -1189,15 +1190,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B33" s="5">
         <v>190</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D33" s="5">
         <v>106</v>
@@ -1206,15 +1207,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B34" s="5">
         <v>210</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D34" s="5">
         <v>53</v>
@@ -1223,15 +1224,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B35" s="5">
         <v>220</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D35" s="5">
         <v>81</v>
@@ -1240,15 +1241,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B36" s="5">
         <v>120</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D36" s="5">
         <v>78</v>
@@ -1257,15 +1258,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B37" s="5">
         <v>230</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D37" s="5">
         <v>82</v>
@@ -1274,15 +1275,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B38" s="5">
         <v>110</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D38" s="5">
         <v>110</v>
@@ -1291,15 +1292,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B39" s="5">
         <v>240</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D39" s="5">
         <v>115</v>
@@ -1308,15 +1309,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B40" s="5">
         <v>180</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D40" s="5">
         <v>100</v>
@@ -1325,15 +1326,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B41" s="5">
         <v>190</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D41" s="5">
         <v>106</v>
@@ -1342,15 +1343,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B42" s="5">
         <v>210</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D42" s="5">
         <v>53</v>
@@ -1359,15 +1360,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B43" s="5">
         <v>220</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D43" s="5">
         <v>81</v>
@@ -1376,15 +1377,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B44" s="5">
         <v>120</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D44" s="5">
         <v>78</v>
@@ -1393,15 +1394,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B45" s="5">
         <v>230</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D45" s="5">
         <v>82</v>
@@ -1410,15 +1411,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B46" s="5">
         <v>110</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D46" s="5">
         <v>110</v>
@@ -1427,15 +1428,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B47" s="5">
         <v>240</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D47" s="5">
         <v>115</v>
@@ -1451,54 +1452,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B5" s="4">
         <v>17</v>
@@ -1510,251 +1511,249 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>9</v>
       </c>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -1990,9 +1989,28 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2B82DE-9A30-4019-B39F-8C60BCEFF7C3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2B82DE-9A30-4019-B39F-8C60BCEFF7C3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="882bdec5-c3ce-4705-9a84-58ed8ad203ea"/>
+    <ds:schemaRef ds:uri="c6fe3531-949f-4c96-ac1d-b793c48e3f25"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16F0D095-7A5D-4F73-BC58-F893938C7DB1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16F0D095-7A5D-4F73-BC58-F893938C7DB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>